--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt5a-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt5a-Fzd7.xlsx
@@ -540,10 +540,10 @@
         <v>27.470878</v>
       </c>
       <c r="I2">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J2">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.553279333333334</v>
+        <v>0.6068319999999999</v>
       </c>
       <c r="N2">
-        <v>7.659838000000001</v>
+        <v>1.820496</v>
       </c>
       <c r="O2">
-        <v>0.1645043904057808</v>
+        <v>0.03392274820144286</v>
       </c>
       <c r="P2">
-        <v>0.1645043904057808</v>
+        <v>0.03392274820144286</v>
       </c>
       <c r="Q2">
-        <v>23.38027502197378</v>
+        <v>5.556735946165333</v>
       </c>
       <c r="R2">
-        <v>210.422475197764</v>
+        <v>50.010623515488</v>
       </c>
       <c r="S2">
-        <v>0.1594819831535652</v>
+        <v>0.03288375181598083</v>
       </c>
       <c r="T2">
-        <v>0.1594819831535652</v>
+        <v>0.03288375181598083</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>27.470878</v>
       </c>
       <c r="I3">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J3">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>24.175986</v>
       </c>
       <c r="O3">
-        <v>0.5192088709172035</v>
+        <v>0.4504903529585388</v>
       </c>
       <c r="P3">
-        <v>0.5192088709172036</v>
+        <v>0.4504903529585388</v>
       </c>
       <c r="Q3">
         <v>73.79284021507868</v>
@@ -632,10 +632,10 @@
         <v>664.1355619357081</v>
       </c>
       <c r="S3">
-        <v>0.5033571456697684</v>
+        <v>0.4366925956061574</v>
       </c>
       <c r="T3">
-        <v>0.5033571456697684</v>
+        <v>0.4366925956061574</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>27.470878</v>
       </c>
       <c r="I4">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J4">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.909099333333333</v>
+        <v>9.223151</v>
       </c>
       <c r="N4">
-        <v>14.727298</v>
+        <v>27.669453</v>
       </c>
       <c r="O4">
-        <v>0.3162867386770156</v>
+        <v>0.5155868988400183</v>
       </c>
       <c r="P4">
-        <v>0.3162867386770157</v>
+        <v>0.5155868988400183</v>
       </c>
       <c r="Q4">
-        <v>44.95242295862711</v>
+        <v>84.45601863219268</v>
       </c>
       <c r="R4">
-        <v>404.571806627644</v>
+        <v>760.1041676897341</v>
       </c>
       <c r="S4">
-        <v>0.3066303349409653</v>
+        <v>0.4997953444203921</v>
       </c>
       <c r="T4">
-        <v>0.3066303349409653</v>
+        <v>0.4997953444203921</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H5">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I5">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J5">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.553279333333334</v>
+        <v>0.6068319999999999</v>
       </c>
       <c r="N5">
-        <v>7.659838000000001</v>
+        <v>1.820496</v>
       </c>
       <c r="O5">
-        <v>0.1645043904057808</v>
+        <v>0.03392274820144286</v>
       </c>
       <c r="P5">
-        <v>0.1645043904057808</v>
+        <v>0.03392274820144286</v>
       </c>
       <c r="Q5">
-        <v>0.7362917146326667</v>
+        <v>0.1755708592906667</v>
       </c>
       <c r="R5">
-        <v>6.626625431694</v>
+        <v>1.580137733616</v>
       </c>
       <c r="S5">
-        <v>0.005022407252215609</v>
+        <v>0.001038996385462041</v>
       </c>
       <c r="T5">
-        <v>0.005022407252215609</v>
+        <v>0.00103899638546204</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H6">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I6">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J6">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>24.175986</v>
       </c>
       <c r="O6">
-        <v>0.5192088709172035</v>
+        <v>0.4504903529585388</v>
       </c>
       <c r="P6">
-        <v>0.5192088709172036</v>
+        <v>0.4504903529585388</v>
       </c>
       <c r="Q6">
-        <v>2.323884419602</v>
+        <v>2.331561638267333</v>
       </c>
       <c r="R6">
-        <v>20.914959776418</v>
+        <v>20.984054744406</v>
       </c>
       <c r="S6">
-        <v>0.01585172524743513</v>
+        <v>0.01379775735238139</v>
       </c>
       <c r="T6">
-        <v>0.01585172524743513</v>
+        <v>0.01379775735238138</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H7">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I7">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J7">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.909099333333333</v>
+        <v>9.223151</v>
       </c>
       <c r="N7">
-        <v>14.727298</v>
+        <v>27.669453</v>
       </c>
       <c r="O7">
-        <v>0.3162867386770156</v>
+        <v>0.5155868988400183</v>
       </c>
       <c r="P7">
-        <v>0.3162867386770157</v>
+        <v>0.5155868988400183</v>
       </c>
       <c r="Q7">
-        <v>1.415641883852667</v>
+        <v>2.668475865540334</v>
       </c>
       <c r="R7">
-        <v>12.740776954674</v>
+        <v>24.016282789863</v>
       </c>
       <c r="S7">
-        <v>0.009656403736050347</v>
+        <v>0.0157915544196262</v>
       </c>
       <c r="T7">
-        <v>0.009656403736050348</v>
+        <v>0.0157915544196262</v>
       </c>
     </row>
   </sheetData>
